--- a/tut05/output/0501ME16.xlsx
+++ b/tut05/output/0501ME16.xlsx
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.183673469387755</v>
+        <v>6.18</v>
       </c>
       <c r="C6" t="n">
-        <v>5.840909090909091</v>
+        <v>5.84</v>
       </c>
       <c r="D6" t="n">
-        <v>5.404255319148936</v>
+        <v>5.4</v>
       </c>
       <c r="E6" t="n">
-        <v>6.591836734693878</v>
+        <v>6.59</v>
       </c>
       <c r="F6" t="n">
-        <v>7.173913043478261</v>
+        <v>7.17</v>
       </c>
       <c r="G6" t="n">
-        <v>7.869565217391305</v>
+        <v>7.87</v>
       </c>
       <c r="H6" t="n">
         <v>9.35</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.183673469387755</v>
+        <v>6.18</v>
       </c>
       <c r="C8" t="n">
-        <v>6.021505376344086</v>
+        <v>6.02</v>
       </c>
       <c r="D8" t="n">
-        <v>5.814285714285714</v>
+        <v>5.81</v>
       </c>
       <c r="E8" t="n">
-        <v>6.015873015873016</v>
+        <v>6.02</v>
       </c>
       <c r="F8" t="n">
-        <v>6.242553191489361</v>
+        <v>6.24</v>
       </c>
       <c r="G8" t="n">
-        <v>6.508896797153024</v>
+        <v>6.51</v>
       </c>
       <c r="H8" t="n">
-        <v>6.862928348909658</v>
+        <v>6.86</v>
       </c>
       <c r="I8" t="n">
-        <v>7.060941828254848</v>
+        <v>7.06</v>
       </c>
     </row>
   </sheetData>
